--- a/MainTop/12.12.2024/печать_sorted.xlsx
+++ b/MainTop/12.12.2024/печать_sorted.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="166">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">Тип упорядочить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">остаток</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Черный Кот Звезды Астрология</t>
@@ -559,12 +562,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -574,8 +583,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF969696"/>
+        <fgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -620,8 +635,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -629,15 +648,27 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -666,7 +697,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -687,7 +718,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -718,54 +749,60 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L156"/>
+  <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="G24:L33"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="46.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.1</v>
@@ -779,26 +816,26 @@
       <c r="E2" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
+      <c r="F2" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="4" t="n">
         <v>2</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="0" t="n">
-        <f aca="false">H2/2</f>
-        <v>1</v>
+        <f aca="false">H2-F2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2.8</v>
@@ -812,26 +849,26 @@
       <c r="E3" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>39</v>
+      <c r="F3" s="1" t="n">
+        <v>38</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="4" t="n">
         <v>38</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <f aca="false">H3/2</f>
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">H3-F3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>2.7</v>
@@ -845,26 +882,26 @@
       <c r="E4" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>38</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="4" t="n">
         <v>38</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <f aca="false">H4/2</f>
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <f aca="false">H4-F4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2.2</v>
@@ -878,26 +915,26 @@
       <c r="E5" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>31</v>
+      <c r="F5" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="4" t="n">
         <v>32</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <f aca="false">H5/2</f>
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <f aca="false">H5-F5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2.2</v>
@@ -911,26 +948,26 @@
       <c r="E6" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>31</v>
+      <c r="F6" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="4" t="n">
         <v>32</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <f aca="false">H6/2</f>
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">H6-F6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1.8</v>
@@ -944,26 +981,26 @@
       <c r="E7" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>25</v>
+      <c r="F7" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="4" t="n">
         <v>26</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <f aca="false">H7/2</f>
-        <v>13</v>
+        <v>13</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">H7-F7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1.7</v>
@@ -977,26 +1014,26 @@
       <c r="E8" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>24</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="4" t="n">
         <v>24</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="3" t="n">
-        <f aca="false">H8/2</f>
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">H8-F8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1.3</v>
@@ -1010,26 +1047,26 @@
       <c r="E9" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>18</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="4" t="n">
         <v>18</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <f aca="false">H9/2</f>
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <f aca="false">H9-F9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1.3</v>
@@ -1043,26 +1080,26 @@
       <c r="E10" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>18</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="4" t="n">
         <v>18</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="3" t="n">
-        <f aca="false">H10/2</f>
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <f aca="false">H10-F10</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1.3</v>
@@ -1076,26 +1113,26 @@
       <c r="E11" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>18</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="4" t="n">
         <v>18</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <f aca="false">H11/2</f>
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">H11-F11</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1.2</v>
@@ -1109,26 +1146,26 @@
       <c r="E12" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>17</v>
+      <c r="F12" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="4" t="n">
         <v>16</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="3" t="n">
-        <f aca="false">H12/2</f>
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">H12-F12</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1.1</v>
@@ -1142,26 +1179,26 @@
       <c r="E13" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>15</v>
+      <c r="F13" s="5" t="n">
+        <v>24</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="4" t="n">
         <v>16</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <f aca="false">H13/2</f>
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <f aca="false">H13-F13</f>
+        <v>-8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1.1</v>
@@ -1175,26 +1212,26 @@
       <c r="E14" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>15</v>
+      <c r="F14" s="5" t="n">
+        <v>16</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="4" t="n">
         <v>16</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="3" t="n">
-        <f aca="false">H14/2</f>
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">H14-F14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.8</v>
@@ -1208,26 +1245,26 @@
       <c r="E15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>11</v>
+      <c r="F15" s="5" t="n">
+        <v>12</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="4" t="n">
         <v>12</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="3" t="n">
-        <f aca="false">H15/2</f>
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">H15-F15</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.8</v>
@@ -1241,26 +1278,26 @@
       <c r="E16" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>11</v>
+      <c r="F16" s="5" t="n">
+        <v>12</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="4" t="n">
         <v>12</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="3" t="n">
-        <f aca="false">H16/2</f>
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">H16-F16</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.8</v>
@@ -1274,26 +1311,26 @@
       <c r="E17" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>11</v>
+      <c r="F17" s="5" t="n">
+        <v>12</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="4" t="n">
         <v>12</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="3" t="n">
-        <f aca="false">H17/2</f>
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <f aca="false">H17-F17</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.8</v>
@@ -1307,26 +1344,26 @@
       <c r="E18" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>11</v>
+      <c r="F18" s="5" t="n">
+        <v>12</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="4" t="n">
         <v>12</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="3" t="n">
-        <f aca="false">H18/2</f>
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">H18-F18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.8</v>
@@ -1340,26 +1377,26 @@
       <c r="E19" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <v>11</v>
+      <c r="F19" s="5" t="n">
+        <v>12</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="4" t="n">
         <v>12</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <f aca="false">H19/2</f>
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <f aca="false">H19-F19</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.8</v>
@@ -1373,26 +1410,26 @@
       <c r="E20" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <v>11</v>
+      <c r="F20" s="5" t="n">
+        <v>20</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="4" t="n">
         <v>12</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="3" t="n">
-        <f aca="false">H20/2</f>
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">H20-F20</f>
+        <v>-8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.7</v>
@@ -1406,26 +1443,26 @@
       <c r="E21" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="5" t="n">
         <v>10</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="4" t="n">
         <v>10</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="3" t="n">
-        <f aca="false">H21/2</f>
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <f aca="false">H21-F21</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.7</v>
@@ -1439,26 +1476,26 @@
       <c r="E22" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="5" t="n">
         <v>10</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="4" t="n">
         <v>10</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="3" t="n">
-        <f aca="false">H22/2</f>
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <f aca="false">H22-F22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.7</v>
@@ -1472,26 +1509,26 @@
       <c r="E23" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="5" t="n">
         <v>10</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="4" t="n">
         <v>10</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="3" t="n">
-        <f aca="false">H23/2</f>
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">H23-F23</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.6</v>
@@ -1505,26 +1542,26 @@
       <c r="E24" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="5" t="n">
         <v>8</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H24" s="4" t="n">
+      <c r="H24" s="6" t="n">
         <v>8</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="3" t="n">
-        <f aca="false">H24/2</f>
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <f aca="false">H24-F24</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.6</v>
@@ -1538,26 +1575,26 @@
       <c r="E25" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="5" t="n">
         <v>8</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H25" s="4" t="n">
+      <c r="H25" s="6" t="n">
         <v>8</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="3" t="n">
-        <f aca="false">H25/2</f>
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">H25-F25</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.6</v>
@@ -1571,26 +1608,26 @@
       <c r="E26" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="5" t="n">
         <v>8</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H26" s="4" t="n">
+      <c r="H26" s="6" t="n">
         <v>8</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="3" t="n">
-        <f aca="false">H26/2</f>
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <f aca="false">H26-F26</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.5</v>
@@ -1604,26 +1641,26 @@
       <c r="E27" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F27" s="0" t="n">
-        <v>7</v>
+      <c r="F27" s="5" t="n">
+        <v>8</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H27" s="4" t="n">
+      <c r="H27" s="6" t="n">
         <v>8</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="3" t="n">
-        <f aca="false">H27/2</f>
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <f aca="false">H27-F27</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.5</v>
@@ -1637,26 +1674,26 @@
       <c r="E28" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F28" s="0" t="n">
-        <v>7</v>
+      <c r="F28" s="5" t="n">
+        <v>8</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H28" s="4" t="n">
+      <c r="H28" s="6" t="n">
         <v>8</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="3" t="n">
-        <f aca="false">H28/2</f>
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <f aca="false">H28-F28</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.5</v>
@@ -1670,26 +1707,26 @@
       <c r="E29" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F29" s="0" t="n">
-        <v>7</v>
+      <c r="F29" s="5" t="n">
+        <v>8</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H29" s="4" t="n">
+      <c r="H29" s="6" t="n">
         <v>8</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="3" t="n">
-        <f aca="false">H29/2</f>
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <f aca="false">H29-F29</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.5</v>
@@ -1703,30 +1740,30 @@
       <c r="E30" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F30" s="0" t="n">
-        <v>7</v>
+      <c r="F30" s="5" t="n">
+        <v>8</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H30" s="4" t="n">
+      <c r="H30" s="6" t="n">
         <v>8</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="3" t="n">
-        <f aca="false">H30/2</f>
-        <v>4</v>
-      </c>
-      <c r="L30" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <f aca="false">H30-F30</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="4" t="n">
         <f aca="false">SUM(H2:H23)</f>
         <v>396</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.5</v>
@@ -1740,30 +1777,30 @@
       <c r="E31" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F31" s="0" t="n">
-        <v>7</v>
+      <c r="F31" s="5" t="n">
+        <v>8</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H31" s="4" t="n">
+      <c r="H31" s="6" t="n">
         <v>8</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="3" t="n">
-        <f aca="false">H31/2</f>
-        <v>4</v>
-      </c>
-      <c r="L31" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <f aca="false">H31-F31</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="n">
         <f aca="false">SUM(H24:H104)</f>
         <v>362</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.5</v>
@@ -1777,30 +1814,30 @@
       <c r="E32" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F32" s="0" t="n">
-        <v>7</v>
+      <c r="F32" s="5" t="n">
+        <v>8</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H32" s="4" t="n">
+      <c r="H32" s="6" t="n">
         <v>8</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="3" t="n">
-        <f aca="false">H32/2</f>
-        <v>4</v>
-      </c>
-      <c r="L32" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <f aca="false">H32-F32</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="4" t="n">
         <f aca="false">SUM(H105:H154)</f>
         <v>352</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.5</v>
@@ -1814,26 +1851,26 @@
       <c r="E33" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F33" s="0" t="n">
-        <v>7</v>
+      <c r="F33" s="5" t="n">
+        <v>8</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H33" s="4" t="n">
+      <c r="H33" s="6" t="n">
         <v>8</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="3" t="n">
-        <f aca="false">H33/2</f>
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <f aca="false">H33-F33</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.5</v>
@@ -1847,26 +1884,26 @@
       <c r="E34" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F34" s="0" t="n">
-        <v>7</v>
+      <c r="F34" s="5" t="n">
+        <v>8</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H34" s="4" t="n">
+      <c r="H34" s="6" t="n">
         <v>8</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="3" t="n">
-        <f aca="false">H34/2</f>
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <f aca="false">H34-F34</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.5</v>
@@ -1880,26 +1917,26 @@
       <c r="E35" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F35" s="0" t="n">
-        <v>7</v>
+      <c r="F35" s="5" t="n">
+        <v>8</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H35" s="4" t="n">
+      <c r="H35" s="6" t="n">
         <v>8</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="3" t="n">
-        <f aca="false">H35/2</f>
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <f aca="false">H35-F35</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.5</v>
@@ -1913,26 +1950,26 @@
       <c r="E36" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F36" s="0" t="n">
-        <v>7</v>
+      <c r="F36" s="5" t="n">
+        <v>8</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H36" s="4" t="n">
+      <c r="H36" s="6" t="n">
         <v>8</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="3" t="n">
-        <f aca="false">H36/2</f>
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <f aca="false">H36-F36</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.5</v>
@@ -1946,26 +1983,26 @@
       <c r="E37" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F37" s="0" t="n">
-        <v>7</v>
+      <c r="F37" s="5" t="n">
+        <v>20</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H37" s="4" t="n">
+      <c r="H37" s="6" t="n">
         <v>8</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="3" t="n">
-        <f aca="false">H37/2</f>
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <f aca="false">H37-F37</f>
+        <v>-12</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.4</v>
@@ -1979,26 +2016,26 @@
       <c r="E38" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38" s="5" t="n">
         <v>6</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H38" s="4" t="n">
+      <c r="H38" s="6" t="n">
         <v>6</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="3" t="n">
-        <f aca="false">H38/2</f>
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <f aca="false">H38-F38</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.4</v>
@@ -2012,26 +2049,26 @@
       <c r="E39" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39" s="5" t="n">
         <v>6</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H39" s="4" t="n">
+      <c r="H39" s="6" t="n">
         <v>6</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="3" t="n">
-        <f aca="false">H39/2</f>
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <f aca="false">H39-F39</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.4</v>
@@ -2045,26 +2082,26 @@
       <c r="E40" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40" s="5" t="n">
         <v>6</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H40" s="4" t="n">
+      <c r="H40" s="6" t="n">
         <v>6</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="3" t="n">
-        <f aca="false">H40/2</f>
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <f aca="false">H40-F40</f>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.4</v>
@@ -2078,26 +2115,26 @@
       <c r="E41" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41" s="5" t="n">
         <v>6</v>
       </c>
       <c r="G41" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H41" s="4" t="n">
+      <c r="H41" s="6" t="n">
         <v>6</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J41" s="3" t="n">
-        <f aca="false">H41/2</f>
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <f aca="false">H41-F41</f>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.4</v>
@@ -2111,26 +2148,26 @@
       <c r="E42" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F42" s="5" t="n">
         <v>6</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H42" s="4" t="n">
+      <c r="H42" s="6" t="n">
         <v>6</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="3" t="n">
-        <f aca="false">H42/2</f>
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <f aca="false">H42-F42</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.4</v>
@@ -2144,26 +2181,26 @@
       <c r="E43" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>1110</v>
+      </c>
+      <c r="H43" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G43" s="0" t="n">
-        <v>1110</v>
-      </c>
-      <c r="H43" s="4" t="n">
+      <c r="I43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <f aca="false">H43-F43</f>
         <v>6</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" s="3" t="n">
-        <f aca="false">H43/2</f>
-        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.4</v>
@@ -2177,26 +2214,26 @@
       <c r="E44" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>1110</v>
+      </c>
+      <c r="H44" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G44" s="0" t="n">
-        <v>1110</v>
-      </c>
-      <c r="H44" s="4" t="n">
+      <c r="I44" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <f aca="false">H44-F44</f>
         <v>6</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="3" t="n">
-        <f aca="false">H44/2</f>
-        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.4</v>
@@ -2210,26 +2247,26 @@
       <c r="E45" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45" s="5" t="n">
         <v>6</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H45" s="4" t="n">
+      <c r="H45" s="6" t="n">
         <v>6</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="3" t="n">
-        <f aca="false">H45/2</f>
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <f aca="false">H45-F45</f>
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.4</v>
@@ -2243,26 +2280,26 @@
       <c r="E46" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46" s="5" t="n">
         <v>6</v>
       </c>
       <c r="G46" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H46" s="4" t="n">
+      <c r="H46" s="6" t="n">
         <v>6</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="3" t="n">
-        <f aca="false">H46/2</f>
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <f aca="false">H46-F46</f>
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.3</v>
@@ -2276,26 +2313,26 @@
       <c r="E47" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H47" s="4" t="n">
+      <c r="H47" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="3" t="n">
-        <f aca="false">H47/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <f aca="false">H47-F47</f>
+        <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.3</v>
@@ -2309,26 +2346,26 @@
       <c r="E48" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H48" s="4" t="n">
+      <c r="H48" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="3" t="n">
-        <f aca="false">H48/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <f aca="false">H48-F48</f>
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.3</v>
@@ -2342,26 +2379,26 @@
       <c r="E49" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F49" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G49" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H49" s="4" t="n">
+      <c r="H49" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="3" t="n">
-        <f aca="false">H49/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <f aca="false">H49-F49</f>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.3</v>
@@ -2375,26 +2412,26 @@
       <c r="E50" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H50" s="4" t="n">
+      <c r="H50" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="3" t="n">
-        <f aca="false">H50/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <f aca="false">H50-F50</f>
+        <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.3</v>
@@ -2408,26 +2445,26 @@
       <c r="E51" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F51" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G51" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H51" s="4" t="n">
+      <c r="H51" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="3" t="n">
-        <f aca="false">H51/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <f aca="false">H51-F51</f>
+        <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.3</v>
@@ -2441,26 +2478,26 @@
       <c r="E52" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="F52" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G52" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H52" s="4" t="n">
+      <c r="H52" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="3" t="n">
-        <f aca="false">H52/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <f aca="false">H52-F52</f>
+        <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>0.3</v>
@@ -2474,26 +2511,26 @@
       <c r="E53" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="F53" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H53" s="4" t="n">
+      <c r="H53" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="3" t="n">
-        <f aca="false">H53/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <f aca="false">H53-F53</f>
+        <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>0.3</v>
@@ -2507,26 +2544,26 @@
       <c r="E54" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="F54" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H54" s="4" t="n">
+      <c r="H54" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="3" t="n">
-        <f aca="false">H54/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <f aca="false">H54-F54</f>
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>0.3</v>
@@ -2540,26 +2577,26 @@
       <c r="E55" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F55" s="0" t="n">
+      <c r="F55" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G55" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H55" s="4" t="n">
+      <c r="H55" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="3" t="n">
-        <f aca="false">H55/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <f aca="false">H55-F55</f>
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>0.3</v>
@@ -2573,26 +2610,26 @@
       <c r="E56" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F56" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G56" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H56" s="4" t="n">
+      <c r="H56" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="3" t="n">
-        <f aca="false">H56/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <f aca="false">H56-F56</f>
+        <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>0.3</v>
@@ -2606,26 +2643,26 @@
       <c r="E57" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F57" s="0" t="n">
-        <v>4</v>
+      <c r="F57" s="5" t="n">
+        <v>10</v>
       </c>
       <c r="G57" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H57" s="4" t="n">
+      <c r="H57" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="3" t="n">
-        <f aca="false">H57/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <f aca="false">H57-F57</f>
+        <v>-6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>0.3</v>
@@ -2639,26 +2676,26 @@
       <c r="E58" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F58" s="0" t="n">
+      <c r="F58" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G58" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H58" s="4" t="n">
+      <c r="H58" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="3" t="n">
-        <f aca="false">H58/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <f aca="false">H58-F58</f>
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>0.3</v>
@@ -2672,26 +2709,26 @@
       <c r="E59" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F59" s="0" t="n">
+      <c r="F59" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G59" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H59" s="4" t="n">
+      <c r="H59" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="3" t="n">
-        <f aca="false">H59/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <f aca="false">H59-F59</f>
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>0.3</v>
@@ -2705,26 +2742,26 @@
       <c r="E60" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F60" s="0" t="n">
+      <c r="F60" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G60" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H60" s="4" t="n">
+      <c r="H60" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="3" t="n">
-        <f aca="false">H60/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <f aca="false">H60-F60</f>
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>0.3</v>
@@ -2738,26 +2775,26 @@
       <c r="E61" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F61" s="0" t="n">
+      <c r="F61" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G61" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H61" s="4" t="n">
+      <c r="H61" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="3" t="n">
-        <f aca="false">H61/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <f aca="false">H61-F61</f>
+        <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>0.3</v>
@@ -2771,26 +2808,26 @@
       <c r="E62" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F62" s="0" t="n">
+      <c r="F62" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G62" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H62" s="4" t="n">
+      <c r="H62" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="3" t="n">
-        <f aca="false">H62/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <f aca="false">H62-F62</f>
+        <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>0.3</v>
@@ -2804,26 +2841,26 @@
       <c r="E63" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F63" s="0" t="n">
+      <c r="F63" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G63" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H63" s="4" t="n">
+      <c r="H63" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="3" t="n">
-        <f aca="false">H63/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <f aca="false">H63-F63</f>
+        <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>0.3</v>
@@ -2837,26 +2874,26 @@
       <c r="E64" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F64" s="0" t="n">
+      <c r="F64" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G64" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H64" s="4" t="n">
+      <c r="H64" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="3" t="n">
-        <f aca="false">H64/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <f aca="false">H64-F64</f>
+        <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>0.3</v>
@@ -2870,26 +2907,26 @@
       <c r="E65" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F65" s="0" t="n">
+      <c r="F65" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G65" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H65" s="4" t="n">
+      <c r="H65" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="3" t="n">
-        <f aca="false">H65/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J65" s="0" t="n">
+        <f aca="false">H65-F65</f>
+        <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>0.3</v>
@@ -2903,26 +2940,26 @@
       <c r="E66" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H66" s="4" t="n">
+      <c r="H66" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="3" t="n">
-        <f aca="false">H66/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <f aca="false">H66-F66</f>
+        <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>0.3</v>
@@ -2936,26 +2973,26 @@
       <c r="E67" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F67" s="0" t="n">
+      <c r="F67" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G67" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H67" s="4" t="n">
+      <c r="H67" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="3" t="n">
-        <f aca="false">H67/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <f aca="false">H67-F67</f>
+        <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>0.2</v>
@@ -2969,26 +3006,26 @@
       <c r="E68" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F68" s="0" t="n">
+      <c r="F68" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G68" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H68" s="4" t="n">
+      <c r="H68" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="3" t="n">
-        <f aca="false">H68/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <f aca="false">H68-F68</f>
+        <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>0.2</v>
@@ -3002,26 +3039,26 @@
       <c r="E69" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F69" s="0" t="n">
+      <c r="F69" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G69" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H69" s="4" t="n">
+      <c r="H69" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="3" t="n">
-        <f aca="false">H69/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <f aca="false">H69-F69</f>
+        <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>0.2</v>
@@ -3035,26 +3072,26 @@
       <c r="E70" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F70" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G70" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H70" s="4" t="n">
+      <c r="H70" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="3" t="n">
-        <f aca="false">H70/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <f aca="false">H70-F70</f>
+        <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>0.2</v>
@@ -3068,26 +3105,26 @@
       <c r="E71" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F71" s="0" t="n">
+      <c r="F71" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G71" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H71" s="4" t="n">
+      <c r="H71" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" s="3" t="n">
-        <f aca="false">H71/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <f aca="false">H71-F71</f>
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>0.2</v>
@@ -3101,26 +3138,26 @@
       <c r="E72" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F72" s="0" t="n">
+      <c r="F72" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G72" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H72" s="4" t="n">
+      <c r="H72" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" s="3" t="n">
-        <f aca="false">H72/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <f aca="false">H72-F72</f>
+        <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>0.2</v>
@@ -3134,26 +3171,26 @@
       <c r="E73" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F73" s="0" t="n">
+      <c r="F73" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G73" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H73" s="4" t="n">
+      <c r="H73" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="3" t="n">
-        <f aca="false">H73/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <f aca="false">H73-F73</f>
+        <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>0.2</v>
@@ -3167,26 +3204,26 @@
       <c r="E74" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F74" s="0" t="n">
+      <c r="F74" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G74" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H74" s="4" t="n">
+      <c r="H74" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J74" s="3" t="n">
-        <f aca="false">H74/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <f aca="false">H74-F74</f>
+        <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>0.2</v>
@@ -3200,26 +3237,26 @@
       <c r="E75" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F75" s="0" t="n">
+      <c r="F75" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G75" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H75" s="4" t="n">
+      <c r="H75" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J75" s="3" t="n">
-        <f aca="false">H75/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <f aca="false">H75-F75</f>
+        <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>0.2</v>
@@ -3233,26 +3270,26 @@
       <c r="E76" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F76" s="0" t="n">
+      <c r="F76" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G76" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H76" s="4" t="n">
+      <c r="H76" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J76" s="3" t="n">
-        <f aca="false">H76/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J76" s="0" t="n">
+        <f aca="false">H76-F76</f>
+        <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>0.2</v>
@@ -3266,26 +3303,26 @@
       <c r="E77" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F77" s="0" t="n">
+      <c r="F77" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G77" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H77" s="4" t="n">
+      <c r="H77" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" s="3" t="n">
-        <f aca="false">H77/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <f aca="false">H77-F77</f>
+        <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>0.2</v>
@@ -3299,26 +3336,26 @@
       <c r="E78" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F78" s="0" t="n">
+      <c r="F78" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G78" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H78" s="4" t="n">
+      <c r="H78" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J78" s="3" t="n">
-        <f aca="false">H78/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J78" s="0" t="n">
+        <f aca="false">H78-F78</f>
+        <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>0.2</v>
@@ -3332,26 +3369,26 @@
       <c r="E79" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F79" s="0" t="n">
+      <c r="F79" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G79" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H79" s="4" t="n">
+      <c r="H79" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J79" s="3" t="n">
-        <f aca="false">H79/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J79" s="0" t="n">
+        <f aca="false">H79-F79</f>
+        <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>0.2</v>
@@ -3365,26 +3402,26 @@
       <c r="E80" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F80" s="0" t="n">
+      <c r="F80" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G80" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H80" s="4" t="n">
+      <c r="H80" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J80" s="3" t="n">
-        <f aca="false">H80/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J80" s="0" t="n">
+        <f aca="false">H80-F80</f>
+        <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>0.2</v>
@@ -3398,26 +3435,26 @@
       <c r="E81" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F81" s="0" t="n">
+      <c r="F81" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G81" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H81" s="4" t="n">
+      <c r="H81" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J81" s="3" t="n">
-        <f aca="false">H81/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <f aca="false">H81-F81</f>
+        <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>0.2</v>
@@ -3431,26 +3468,26 @@
       <c r="E82" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F82" s="0" t="n">
+      <c r="F82" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G82" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H82" s="4" t="n">
+      <c r="H82" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J82" s="3" t="n">
-        <f aca="false">H82/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J82" s="0" t="n">
+        <f aca="false">H82-F82</f>
+        <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>0.2</v>
@@ -3464,26 +3501,26 @@
       <c r="E83" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F83" s="0" t="n">
+      <c r="F83" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G83" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H83" s="4" t="n">
+      <c r="H83" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J83" s="3" t="n">
-        <f aca="false">H83/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J83" s="0" t="n">
+        <f aca="false">H83-F83</f>
+        <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>0.2</v>
@@ -3497,26 +3534,26 @@
       <c r="E84" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F84" s="0" t="n">
+      <c r="F84" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G84" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H84" s="4" t="n">
+      <c r="H84" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J84" s="3" t="n">
-        <f aca="false">H84/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J84" s="0" t="n">
+        <f aca="false">H84-F84</f>
+        <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>0.2</v>
@@ -3530,26 +3567,26 @@
       <c r="E85" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F85" s="0" t="n">
+      <c r="F85" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G85" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H85" s="4" t="n">
+      <c r="H85" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J85" s="3" t="n">
-        <f aca="false">H85/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J85" s="0" t="n">
+        <f aca="false">H85-F85</f>
+        <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>0.2</v>
@@ -3563,26 +3600,26 @@
       <c r="E86" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F86" s="0" t="n">
+      <c r="F86" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G86" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H86" s="4" t="n">
+      <c r="H86" s="6" t="n">
         <v>4</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J86" s="3" t="n">
-        <f aca="false">H86/2</f>
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="J86" s="0" t="n">
+        <f aca="false">H86-F86</f>
+        <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>0.1</v>
@@ -3596,26 +3633,26 @@
       <c r="E87" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F87" s="0" t="n">
+      <c r="F87" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G87" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H87" s="4" t="n">
+      <c r="H87" s="6" t="n">
         <v>2</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J87" s="3" t="n">
-        <f aca="false">H87/2</f>
+        <v>13</v>
+      </c>
+      <c r="J87" s="0" t="n">
+        <f aca="false">H87-F87</f>
         <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>0.1</v>
@@ -3629,26 +3666,26 @@
       <c r="E88" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F88" s="0" t="n">
+      <c r="F88" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G88" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H88" s="4" t="n">
+      <c r="H88" s="6" t="n">
         <v>2</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J88" s="3" t="n">
-        <f aca="false">H88/2</f>
+        <v>13</v>
+      </c>
+      <c r="J88" s="0" t="n">
+        <f aca="false">H88-F88</f>
         <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>0.1</v>
@@ -3662,26 +3699,26 @@
       <c r="E89" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F89" s="0" t="n">
+      <c r="F89" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G89" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H89" s="4" t="n">
+      <c r="H89" s="6" t="n">
         <v>2</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J89" s="3" t="n">
-        <f aca="false">H89/2</f>
+        <v>13</v>
+      </c>
+      <c r="J89" s="0" t="n">
+        <f aca="false">H89-F89</f>
         <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>0.1</v>
@@ -3695,26 +3732,26 @@
       <c r="E90" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F90" s="0" t="n">
+      <c r="F90" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G90" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H90" s="4" t="n">
+      <c r="H90" s="6" t="n">
         <v>2</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J90" s="3" t="n">
-        <f aca="false">H90/2</f>
+        <v>13</v>
+      </c>
+      <c r="J90" s="0" t="n">
+        <f aca="false">H90-F90</f>
         <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>0.1</v>
@@ -3728,26 +3765,26 @@
       <c r="E91" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F91" s="0" t="n">
+      <c r="F91" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G91" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H91" s="4" t="n">
+      <c r="H91" s="6" t="n">
         <v>2</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J91" s="3" t="n">
-        <f aca="false">H91/2</f>
+        <v>13</v>
+      </c>
+      <c r="J91" s="0" t="n">
+        <f aca="false">H91-F91</f>
         <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>0.1</v>
@@ -3761,26 +3798,26 @@
       <c r="E92" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F92" s="0" t="n">
+      <c r="F92" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G92" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H92" s="4" t="n">
+      <c r="H92" s="6" t="n">
         <v>2</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J92" s="3" t="n">
-        <f aca="false">H92/2</f>
+        <v>13</v>
+      </c>
+      <c r="J92" s="0" t="n">
+        <f aca="false">H92-F92</f>
         <v>1</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>0.1</v>
@@ -3794,26 +3831,26 @@
       <c r="E93" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F93" s="0" t="n">
+      <c r="F93" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G93" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H93" s="4" t="n">
+      <c r="H93" s="6" t="n">
         <v>2</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J93" s="3" t="n">
-        <f aca="false">H93/2</f>
+        <v>13</v>
+      </c>
+      <c r="J93" s="0" t="n">
+        <f aca="false">H93-F93</f>
         <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>0.1</v>
@@ -3827,26 +3864,26 @@
       <c r="E94" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F94" s="0" t="n">
+      <c r="F94" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G94" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H94" s="4" t="n">
+      <c r="H94" s="6" t="n">
         <v>2</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J94" s="3" t="n">
-        <f aca="false">H94/2</f>
+        <v>13</v>
+      </c>
+      <c r="J94" s="0" t="n">
+        <f aca="false">H94-F94</f>
         <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>0.1</v>
@@ -3860,26 +3897,26 @@
       <c r="E95" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F95" s="0" t="n">
+      <c r="F95" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G95" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H95" s="4" t="n">
+      <c r="H95" s="6" t="n">
         <v>2</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J95" s="3" t="n">
-        <f aca="false">H95/2</f>
+        <v>13</v>
+      </c>
+      <c r="J95" s="0" t="n">
+        <f aca="false">H95-F95</f>
         <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>0.1</v>
@@ -3893,26 +3930,26 @@
       <c r="E96" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F96" s="0" t="n">
+      <c r="F96" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G96" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H96" s="4" t="n">
+      <c r="H96" s="6" t="n">
         <v>2</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J96" s="3" t="n">
-        <f aca="false">H96/2</f>
+        <v>13</v>
+      </c>
+      <c r="J96" s="0" t="n">
+        <f aca="false">H96-F96</f>
         <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>0.1</v>
@@ -3926,26 +3963,26 @@
       <c r="E97" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F97" s="0" t="n">
+      <c r="F97" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G97" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H97" s="4" t="n">
+      <c r="H97" s="6" t="n">
         <v>2</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J97" s="3" t="n">
-        <f aca="false">H97/2</f>
+        <v>13</v>
+      </c>
+      <c r="J97" s="0" t="n">
+        <f aca="false">H97-F97</f>
         <v>1</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>0.1</v>
@@ -3959,26 +3996,26 @@
       <c r="E98" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F98" s="0" t="n">
+      <c r="F98" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G98" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H98" s="4" t="n">
+      <c r="H98" s="6" t="n">
         <v>2</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J98" s="3" t="n">
-        <f aca="false">H98/2</f>
+        <v>13</v>
+      </c>
+      <c r="J98" s="0" t="n">
+        <f aca="false">H98-F98</f>
         <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>0.1</v>
@@ -3992,26 +4029,26 @@
       <c r="E99" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F99" s="0" t="n">
+      <c r="F99" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G99" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H99" s="4" t="n">
+      <c r="H99" s="6" t="n">
         <v>2</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J99" s="3" t="n">
-        <f aca="false">H99/2</f>
+        <v>13</v>
+      </c>
+      <c r="J99" s="0" t="n">
+        <f aca="false">H99-F99</f>
         <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>0.1</v>
@@ -4025,26 +4062,26 @@
       <c r="E100" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F100" s="0" t="n">
+      <c r="F100" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G100" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H100" s="4" t="n">
+      <c r="H100" s="6" t="n">
         <v>2</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J100" s="3" t="n">
-        <f aca="false">H100/2</f>
+        <v>13</v>
+      </c>
+      <c r="J100" s="0" t="n">
+        <f aca="false">H100-F100</f>
         <v>1</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>0.1</v>
@@ -4058,26 +4095,26 @@
       <c r="E101" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F101" s="0" t="n">
+      <c r="F101" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G101" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H101" s="4" t="n">
+      <c r="H101" s="6" t="n">
         <v>2</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J101" s="3" t="n">
-        <f aca="false">H101/2</f>
+        <v>13</v>
+      </c>
+      <c r="J101" s="0" t="n">
+        <f aca="false">H101-F101</f>
         <v>1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>0.1</v>
@@ -4091,26 +4128,26 @@
       <c r="E102" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F102" s="0" t="n">
+      <c r="F102" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G102" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H102" s="4" t="n">
+      <c r="H102" s="6" t="n">
         <v>2</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J102" s="3" t="n">
-        <f aca="false">H102/2</f>
+        <v>13</v>
+      </c>
+      <c r="J102" s="0" t="n">
+        <f aca="false">H102-F102</f>
         <v>1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>0.1</v>
@@ -4124,26 +4161,26 @@
       <c r="E103" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F103" s="0" t="n">
+      <c r="F103" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G103" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H103" s="4" t="n">
+      <c r="H103" s="6" t="n">
         <v>2</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J103" s="3" t="n">
-        <f aca="false">H103/2</f>
+        <v>13</v>
+      </c>
+      <c r="J103" s="0" t="n">
+        <f aca="false">H103-F103</f>
         <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>0.1</v>
@@ -4157,26 +4194,26 @@
       <c r="E104" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F104" s="0" t="n">
+      <c r="F104" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G104" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H104" s="4" t="n">
+      <c r="H104" s="6" t="n">
         <v>2</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J104" s="3" t="n">
-        <f aca="false">H104/2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="J104" s="0" t="n">
+        <f aca="false">H104-F104</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>4</v>
@@ -4190,8 +4227,8 @@
       <c r="E105" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F105" s="0" t="n">
-        <v>56</v>
+      <c r="F105" s="5" t="n">
+        <v>48</v>
       </c>
       <c r="G105" s="0" t="n">
         <v>1110</v>
@@ -4200,16 +4237,16 @@
         <v>48</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J105" s="0" t="n">
-        <f aca="false">H105/4</f>
-        <v>12</v>
+        <f aca="false">H105-F105</f>
+        <v>0</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>2.1</v>
@@ -4223,8 +4260,8 @@
       <c r="E106" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F106" s="0" t="n">
-        <v>29</v>
+      <c r="F106" s="5" t="n">
+        <v>32</v>
       </c>
       <c r="G106" s="0" t="n">
         <v>1110</v>
@@ -4233,16 +4270,16 @@
         <v>32</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J106" s="3" t="n">
-        <f aca="false">H106/4</f>
-        <v>8</v>
+        <v>116</v>
+      </c>
+      <c r="J106" s="0" t="n">
+        <f aca="false">H106-F106</f>
+        <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>2.1</v>
@@ -4256,8 +4293,8 @@
       <c r="E107" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F107" s="0" t="n">
-        <v>29</v>
+      <c r="F107" s="5" t="n">
+        <v>32</v>
       </c>
       <c r="G107" s="0" t="n">
         <v>1110</v>
@@ -4266,16 +4303,16 @@
         <v>32</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J107" s="3" t="n">
-        <f aca="false">H107/4</f>
-        <v>8</v>
+        <v>116</v>
+      </c>
+      <c r="J107" s="0" t="n">
+        <f aca="false">H107-F107</f>
+        <v>0</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>0.8</v>
@@ -4289,8 +4326,8 @@
       <c r="E108" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F108" s="0" t="n">
-        <v>11</v>
+      <c r="F108" s="5" t="n">
+        <v>12</v>
       </c>
       <c r="G108" s="0" t="n">
         <v>1110</v>
@@ -4299,16 +4336,16 @@
         <v>12</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J108" s="3" t="n">
-        <f aca="false">H108/4</f>
-        <v>3</v>
+        <v>116</v>
+      </c>
+      <c r="J108" s="0" t="n">
+        <f aca="false">H108-F108</f>
+        <v>0</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>0.7</v>
@@ -4322,8 +4359,8 @@
       <c r="E109" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F109" s="0" t="n">
-        <v>10</v>
+      <c r="F109" s="5" t="n">
+        <v>12</v>
       </c>
       <c r="G109" s="0" t="n">
         <v>1110</v>
@@ -4332,16 +4369,16 @@
         <v>12</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J109" s="3" t="n">
-        <f aca="false">H109/4</f>
-        <v>3</v>
+        <v>116</v>
+      </c>
+      <c r="J109" s="0" t="n">
+        <f aca="false">H109-F109</f>
+        <v>0</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>0.7</v>
@@ -4355,8 +4392,8 @@
       <c r="E110" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F110" s="0" t="n">
-        <v>10</v>
+      <c r="F110" s="5" t="n">
+        <v>12</v>
       </c>
       <c r="G110" s="0" t="n">
         <v>1110</v>
@@ -4365,16 +4402,16 @@
         <v>12</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J110" s="3" t="n">
-        <f aca="false">H110/4</f>
-        <v>3</v>
+        <v>116</v>
+      </c>
+      <c r="J110" s="0" t="n">
+        <f aca="false">H110-F110</f>
+        <v>0</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>0.7</v>
@@ -4388,8 +4425,8 @@
       <c r="E111" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F111" s="0" t="n">
-        <v>10</v>
+      <c r="F111" s="5" t="n">
+        <v>12</v>
       </c>
       <c r="G111" s="0" t="n">
         <v>1110</v>
@@ -4398,16 +4435,16 @@
         <v>12</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J111" s="3" t="n">
-        <f aca="false">H111/4</f>
-        <v>3</v>
+        <v>116</v>
+      </c>
+      <c r="J111" s="0" t="n">
+        <f aca="false">H111-F111</f>
+        <v>0</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>0.5</v>
@@ -4421,8 +4458,8 @@
       <c r="E112" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F112" s="0" t="n">
-        <v>7</v>
+      <c r="F112" s="5" t="n">
+        <v>8</v>
       </c>
       <c r="G112" s="0" t="n">
         <v>1110</v>
@@ -4431,16 +4468,16 @@
         <v>8</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J112" s="3" t="n">
-        <f aca="false">H112/4</f>
-        <v>2</v>
+        <v>116</v>
+      </c>
+      <c r="J112" s="0" t="n">
+        <f aca="false">H112-F112</f>
+        <v>0</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>0.4</v>
@@ -4454,8 +4491,8 @@
       <c r="E113" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F113" s="0" t="n">
-        <v>6</v>
+      <c r="F113" s="5" t="n">
+        <v>8</v>
       </c>
       <c r="G113" s="0" t="n">
         <v>1110</v>
@@ -4464,16 +4501,16 @@
         <v>8</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J113" s="3" t="n">
-        <f aca="false">H113/4</f>
-        <v>2</v>
+        <v>116</v>
+      </c>
+      <c r="J113" s="0" t="n">
+        <f aca="false">H113-F113</f>
+        <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>0.4</v>
@@ -4487,8 +4524,8 @@
       <c r="E114" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F114" s="0" t="n">
-        <v>6</v>
+      <c r="F114" s="5" t="n">
+        <v>8</v>
       </c>
       <c r="G114" s="0" t="n">
         <v>1110</v>
@@ -4497,16 +4534,16 @@
         <v>8</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J114" s="3" t="n">
-        <f aca="false">H114/4</f>
-        <v>2</v>
+        <v>116</v>
+      </c>
+      <c r="J114" s="0" t="n">
+        <f aca="false">H114-F114</f>
+        <v>0</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>0.4</v>
@@ -4520,8 +4557,8 @@
       <c r="E115" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F115" s="0" t="n">
-        <v>6</v>
+      <c r="F115" s="5" t="n">
+        <v>8</v>
       </c>
       <c r="G115" s="0" t="n">
         <v>1110</v>
@@ -4530,16 +4567,16 @@
         <v>8</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J115" s="3" t="n">
-        <f aca="false">H115/4</f>
-        <v>2</v>
+        <v>116</v>
+      </c>
+      <c r="J115" s="0" t="n">
+        <f aca="false">H115-F115</f>
+        <v>0</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>0.4</v>
@@ -4553,8 +4590,8 @@
       <c r="E116" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F116" s="0" t="n">
-        <v>6</v>
+      <c r="F116" s="5" t="n">
+        <v>8</v>
       </c>
       <c r="G116" s="0" t="n">
         <v>1110</v>
@@ -4563,16 +4600,16 @@
         <v>8</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J116" s="3" t="n">
-        <f aca="false">H116/4</f>
-        <v>2</v>
+        <v>116</v>
+      </c>
+      <c r="J116" s="0" t="n">
+        <f aca="false">H116-F116</f>
+        <v>0</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>0.3</v>
@@ -4586,7 +4623,7 @@
       <c r="E117" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F117" s="0" t="n">
+      <c r="F117" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G117" s="0" t="n">
@@ -4596,16 +4633,16 @@
         <v>4</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J117" s="3" t="n">
-        <f aca="false">H117/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J117" s="0" t="n">
+        <f aca="false">H117-F117</f>
+        <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>0.3</v>
@@ -4619,7 +4656,7 @@
       <c r="E118" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F118" s="0" t="n">
+      <c r="F118" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G118" s="0" t="n">
@@ -4629,16 +4666,16 @@
         <v>4</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J118" s="3" t="n">
-        <f aca="false">H118/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J118" s="0" t="n">
+        <f aca="false">H118-F118</f>
+        <v>0</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>0.3</v>
@@ -4652,7 +4689,7 @@
       <c r="E119" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F119" s="0" t="n">
+      <c r="F119" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G119" s="0" t="n">
@@ -4662,16 +4699,16 @@
         <v>4</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J119" s="3" t="n">
-        <f aca="false">H119/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J119" s="0" t="n">
+        <f aca="false">H119-F119</f>
+        <v>0</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>0.3</v>
@@ -4685,7 +4722,7 @@
       <c r="E120" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F120" s="0" t="n">
+      <c r="F120" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G120" s="0" t="n">
@@ -4695,16 +4732,16 @@
         <v>4</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J120" s="3" t="n">
-        <f aca="false">H120/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J120" s="0" t="n">
+        <f aca="false">H120-F120</f>
+        <v>0</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>0.3</v>
@@ -4718,7 +4755,7 @@
       <c r="E121" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F121" s="0" t="n">
+      <c r="F121" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G121" s="0" t="n">
@@ -4728,16 +4765,16 @@
         <v>4</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J121" s="3" t="n">
-        <f aca="false">H121/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J121" s="0" t="n">
+        <f aca="false">H121-F121</f>
+        <v>0</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>0.3</v>
@@ -4751,7 +4788,7 @@
       <c r="E122" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F122" s="0" t="n">
+      <c r="F122" s="5" t="n">
         <v>4</v>
       </c>
       <c r="G122" s="0" t="n">
@@ -4761,16 +4798,16 @@
         <v>4</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J122" s="3" t="n">
-        <f aca="false">H122/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J122" s="0" t="n">
+        <f aca="false">H122-F122</f>
+        <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>0.2</v>
@@ -4784,8 +4821,8 @@
       <c r="E123" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F123" s="0" t="n">
-        <v>3</v>
+      <c r="F123" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="G123" s="0" t="n">
         <v>1110</v>
@@ -4794,16 +4831,16 @@
         <v>4</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J123" s="3" t="n">
-        <f aca="false">H123/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J123" s="0" t="n">
+        <f aca="false">H123-F123</f>
+        <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>0.2</v>
@@ -4817,26 +4854,26 @@
       <c r="E124" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F124" s="0" t="n">
-        <v>3</v>
+      <c r="F124" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="G124" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H124" s="3" t="n">
+      <c r="H124" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J124" s="3" t="n">
-        <f aca="false">H124/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J124" s="0" t="n">
+        <f aca="false">H124-F124</f>
+        <v>0</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>0.2</v>
@@ -4850,26 +4887,26 @@
       <c r="E125" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F125" s="0" t="n">
-        <v>3</v>
+      <c r="F125" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="G125" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H125" s="3" t="n">
+      <c r="H125" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J125" s="3" t="n">
-        <f aca="false">H125/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J125" s="0" t="n">
+        <f aca="false">H125-F125</f>
+        <v>0</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>0.2</v>
@@ -4883,26 +4920,26 @@
       <c r="E126" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F126" s="0" t="n">
-        <v>3</v>
+      <c r="F126" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="G126" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H126" s="3" t="n">
+      <c r="H126" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J126" s="3" t="n">
-        <f aca="false">H126/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J126" s="0" t="n">
+        <f aca="false">H126-F126</f>
+        <v>0</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>0.2</v>
@@ -4916,26 +4953,26 @@
       <c r="E127" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F127" s="0" t="n">
-        <v>3</v>
+      <c r="F127" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="G127" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H127" s="3" t="n">
+      <c r="H127" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J127" s="3" t="n">
-        <f aca="false">H127/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J127" s="0" t="n">
+        <f aca="false">H127-F127</f>
+        <v>0</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>0.2</v>
@@ -4949,26 +4986,26 @@
       <c r="E128" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F128" s="0" t="n">
-        <v>3</v>
+      <c r="F128" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="G128" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H128" s="3" t="n">
+      <c r="H128" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J128" s="3" t="n">
-        <f aca="false">H128/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J128" s="0" t="n">
+        <f aca="false">H128-F128</f>
+        <v>0</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>0.2</v>
@@ -4982,26 +5019,26 @@
       <c r="E129" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F129" s="0" t="n">
-        <v>3</v>
+      <c r="F129" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="G129" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H129" s="3" t="n">
+      <c r="H129" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J129" s="3" t="n">
-        <f aca="false">H129/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J129" s="0" t="n">
+        <f aca="false">H129-F129</f>
+        <v>0</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>0.2</v>
@@ -5015,26 +5052,26 @@
       <c r="E130" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F130" s="0" t="n">
-        <v>3</v>
+      <c r="F130" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="G130" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H130" s="3" t="n">
+      <c r="H130" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J130" s="3" t="n">
-        <f aca="false">H130/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J130" s="0" t="n">
+        <f aca="false">H130-F130</f>
+        <v>0</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>0.2</v>
@@ -5048,26 +5085,26 @@
       <c r="E131" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F131" s="0" t="n">
-        <v>3</v>
+      <c r="F131" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="G131" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H131" s="3" t="n">
+      <c r="H131" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J131" s="3" t="n">
-        <f aca="false">H131/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J131" s="0" t="n">
+        <f aca="false">H131-F131</f>
+        <v>0</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>0.2</v>
@@ -5081,26 +5118,26 @@
       <c r="E132" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F132" s="0" t="n">
-        <v>3</v>
+      <c r="F132" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="G132" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H132" s="3" t="n">
+      <c r="H132" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J132" s="3" t="n">
-        <f aca="false">H132/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J132" s="0" t="n">
+        <f aca="false">H132-F132</f>
+        <v>0</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>0.2</v>
@@ -5114,26 +5151,26 @@
       <c r="E133" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F133" s="0" t="n">
-        <v>3</v>
+      <c r="F133" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="G133" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H133" s="3" t="n">
+      <c r="H133" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J133" s="3" t="n">
-        <f aca="false">H133/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J133" s="0" t="n">
+        <f aca="false">H133-F133</f>
+        <v>2</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>0.1</v>
@@ -5147,26 +5184,26 @@
       <c r="E134" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F134" s="0" t="n">
-        <v>1</v>
+      <c r="F134" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="G134" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H134" s="3" t="n">
+      <c r="H134" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J134" s="3" t="n">
-        <f aca="false">H134/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J134" s="0" t="n">
+        <f aca="false">H134-F134</f>
+        <v>2</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B135" s="0" t="n">
         <v>0.1</v>
@@ -5180,26 +5217,26 @@
       <c r="E135" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F135" s="0" t="n">
-        <v>1</v>
+      <c r="F135" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="G135" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H135" s="3" t="n">
+      <c r="H135" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J135" s="3" t="n">
-        <f aca="false">H135/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J135" s="0" t="n">
+        <f aca="false">H135-F135</f>
+        <v>2</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>0.1</v>
@@ -5213,26 +5250,26 @@
       <c r="E136" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F136" s="0" t="n">
-        <v>1</v>
+      <c r="F136" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="G136" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H136" s="3" t="n">
+      <c r="H136" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J136" s="3" t="n">
-        <f aca="false">H136/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J136" s="0" t="n">
+        <f aca="false">H136-F136</f>
+        <v>2</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>0.1</v>
@@ -5246,26 +5283,26 @@
       <c r="E137" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F137" s="0" t="n">
-        <v>1</v>
+      <c r="F137" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="G137" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H137" s="3" t="n">
+      <c r="H137" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J137" s="3" t="n">
-        <f aca="false">H137/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J137" s="0" t="n">
+        <f aca="false">H137-F137</f>
+        <v>2</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>0.1</v>
@@ -5279,26 +5316,26 @@
       <c r="E138" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F138" s="0" t="n">
-        <v>1</v>
+      <c r="F138" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="G138" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H138" s="3" t="n">
+      <c r="H138" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J138" s="3" t="n">
-        <f aca="false">H138/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J138" s="0" t="n">
+        <f aca="false">H138-F138</f>
+        <v>2</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>0.1</v>
@@ -5312,26 +5349,26 @@
       <c r="E139" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F139" s="0" t="n">
-        <v>1</v>
+      <c r="F139" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="G139" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H139" s="3" t="n">
+      <c r="H139" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J139" s="3" t="n">
-        <f aca="false">H139/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J139" s="0" t="n">
+        <f aca="false">H139-F139</f>
+        <v>2</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>0.1</v>
@@ -5345,26 +5382,26 @@
       <c r="E140" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F140" s="0" t="n">
-        <v>1</v>
+      <c r="F140" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="G140" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H140" s="3" t="n">
+      <c r="H140" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J140" s="3" t="n">
-        <f aca="false">H140/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J140" s="0" t="n">
+        <f aca="false">H140-F140</f>
+        <v>2</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>0.1</v>
@@ -5378,26 +5415,26 @@
       <c r="E141" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F141" s="0" t="n">
-        <v>1</v>
+      <c r="F141" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="G141" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H141" s="3" t="n">
+      <c r="H141" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J141" s="3" t="n">
-        <f aca="false">H141/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J141" s="0" t="n">
+        <f aca="false">H141-F141</f>
+        <v>2</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>0.1</v>
@@ -5411,26 +5448,26 @@
       <c r="E142" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F142" s="0" t="n">
-        <v>1</v>
+      <c r="F142" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="G142" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H142" s="3" t="n">
+      <c r="H142" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J142" s="3" t="n">
-        <f aca="false">H142/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J142" s="0" t="n">
+        <f aca="false">H142-F142</f>
+        <v>2</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>0.1</v>
@@ -5444,26 +5481,26 @@
       <c r="E143" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F143" s="0" t="n">
-        <v>1</v>
+      <c r="F143" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="G143" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H143" s="3" t="n">
+      <c r="H143" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J143" s="3" t="n">
-        <f aca="false">H143/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J143" s="0" t="n">
+        <f aca="false">H143-F143</f>
+        <v>2</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>0.1</v>
@@ -5477,26 +5514,26 @@
       <c r="E144" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F144" s="0" t="n">
-        <v>1</v>
+      <c r="F144" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="G144" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H144" s="3" t="n">
+      <c r="H144" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J144" s="3" t="n">
-        <f aca="false">H144/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J144" s="0" t="n">
+        <f aca="false">H144-F144</f>
+        <v>2</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>0.1</v>
@@ -5510,26 +5547,26 @@
       <c r="E145" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F145" s="0" t="n">
-        <v>1</v>
+      <c r="F145" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="G145" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H145" s="3" t="n">
+      <c r="H145" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J145" s="3" t="n">
-        <f aca="false">H145/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J145" s="0" t="n">
+        <f aca="false">H145-F145</f>
+        <v>0</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>0.1</v>
@@ -5543,26 +5580,26 @@
       <c r="E146" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F146" s="0" t="n">
-        <v>1</v>
+      <c r="F146" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="G146" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H146" s="3" t="n">
+      <c r="H146" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J146" s="3" t="n">
-        <f aca="false">H146/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J146" s="0" t="n">
+        <f aca="false">H146-F146</f>
+        <v>2</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>0.1</v>
@@ -5576,26 +5613,26 @@
       <c r="E147" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F147" s="0" t="n">
-        <v>1</v>
+      <c r="F147" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="G147" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H147" s="3" t="n">
+      <c r="H147" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J147" s="3" t="n">
-        <f aca="false">H147/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J147" s="0" t="n">
+        <f aca="false">H147-F147</f>
+        <v>2</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>0.1</v>
@@ -5609,26 +5646,26 @@
       <c r="E148" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F148" s="0" t="n">
-        <v>1</v>
+      <c r="F148" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="G148" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H148" s="3" t="n">
+      <c r="H148" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J148" s="3" t="n">
-        <f aca="false">H148/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J148" s="0" t="n">
+        <f aca="false">H148-F148</f>
+        <v>2</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>0.1</v>
@@ -5642,26 +5679,26 @@
       <c r="E149" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F149" s="0" t="n">
+      <c r="F149" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G149" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H149" s="3" t="n">
+      <c r="H149" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J149" s="3" t="n">
-        <f aca="false">H149/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J149" s="0" t="n">
+        <f aca="false">H149-F149</f>
+        <v>3</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>0.1</v>
@@ -5675,26 +5712,26 @@
       <c r="E150" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F150" s="0" t="n">
-        <v>1</v>
+      <c r="F150" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="G150" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H150" s="3" t="n">
+      <c r="H150" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J150" s="3" t="n">
-        <f aca="false">H150/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J150" s="0" t="n">
+        <f aca="false">H150-F150</f>
+        <v>0</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>0.1</v>
@@ -5708,26 +5745,26 @@
       <c r="E151" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F151" s="0" t="n">
-        <v>1</v>
+      <c r="F151" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="G151" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H151" s="3" t="n">
+      <c r="H151" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J151" s="3" t="n">
-        <f aca="false">H151/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J151" s="0" t="n">
+        <f aca="false">H151-F151</f>
+        <v>2</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>0.1</v>
@@ -5741,26 +5778,26 @@
       <c r="E152" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F152" s="0" t="n">
-        <v>1</v>
+      <c r="F152" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="G152" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H152" s="3" t="n">
+      <c r="H152" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J152" s="3" t="n">
-        <f aca="false">H152/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J152" s="0" t="n">
+        <f aca="false">H152-F152</f>
+        <v>2</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>0.1</v>
@@ -5774,26 +5811,26 @@
       <c r="E153" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F153" s="0" t="n">
-        <v>1</v>
+      <c r="F153" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="G153" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H153" s="3" t="n">
+      <c r="H153" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J153" s="3" t="n">
-        <f aca="false">H153/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J153" s="0" t="n">
+        <f aca="false">H153-F153</f>
+        <v>2</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>0.1</v>
@@ -5807,27 +5844,78 @@
       <c r="E154" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F154" s="0" t="n">
-        <v>1</v>
+      <c r="F154" s="5" t="n">
+        <v>4</v>
       </c>
       <c r="G154" s="0" t="n">
         <v>1110</v>
       </c>
-      <c r="H154" s="3" t="n">
+      <c r="H154" s="7" t="n">
         <v>4</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="J154" s="3" t="n">
-        <f aca="false">H154/4</f>
-        <v>1</v>
+        <v>116</v>
+      </c>
+      <c r="J154" s="0" t="n">
+        <f aca="false">H154-F154</f>
+        <v>0</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F155" s="3"/>
+      <c r="F155" s="8" t="n">
+        <f aca="false">SUM(F2:F154)</f>
+        <v>1056</v>
+      </c>
+      <c r="H155" s="7" t="n">
+        <f aca="false">SUM(H2:H154)</f>
+        <v>1110</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
